--- a/Benchmark_best_results_solomon.xlsx
+++ b/Benchmark_best_results_solomon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joket\IdeaProjects\VRP_EA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F147D7-8136-48B9-B7A3-1B021F49EC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008BC3D-A380-4B79-8AA2-771C33F0F40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2520" windowWidth="28800" windowHeight="18045" xr2:uid="{BAAD556A-727A-4372-9D5C-F8945A4F79A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BAAD556A-727A-4372-9D5C-F8945A4F79A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,9 +203,6 @@
     <t>BVH</t>
   </si>
   <si>
-    <t>r205b</t>
-  </si>
-  <si>
     <t>994.42 reported by RGP is believed to result from a rounding error </t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>r211</t>
   </si>
   <si>
-    <t>rc101b</t>
-  </si>
-  <si>
     <t>TBGGP</t>
   </si>
   <si>
@@ -303,6 +297,12 @@
   </si>
   <si>
     <t>dataset</t>
+  </si>
+  <si>
+    <t>r205</t>
+  </si>
+  <si>
+    <t>rc101</t>
   </si>
 </sst>
 </file>
@@ -785,14 +785,14 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="38" spans="1:5" ht="96" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B38" s="4">
         <v>3</v>
@@ -1399,12 +1399,12 @@
         <v>45</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="4">
         <v>3</v>
@@ -1413,7 +1413,7 @@
         <v>906.14</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>8</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4">
         <v>2</v>
@@ -1430,7 +1430,7 @@
         <v>890.61</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40" s="6">
         <v>38408</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="4">
         <v>2</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="42" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="4">
         <v>3</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="4">
         <v>3</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="4">
         <v>2</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="46" spans="1:5" ht="108" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B46" s="4">
         <v>14</v>
@@ -1522,15 +1522,15 @@
         <v>1696.95</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B47" s="4">
         <v>12</v>
@@ -1539,7 +1539,7 @@
         <v>1554.75</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>46</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="48" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="4">
         <v>11</v>
@@ -1556,7 +1556,7 @@
         <v>1261.67</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="49" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="4">
         <v>10</v>
@@ -1573,7 +1573,7 @@
         <v>1135.48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>46</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="50" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" s="4">
         <v>13</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="51" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B51" s="4">
         <v>11</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B52" s="4">
         <v>11</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="53" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" s="4">
         <v>10</v>
@@ -1639,7 +1639,7 @@
         <v>1139.82</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>46</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="55" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B55" s="4">
         <v>4</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4">
         <v>3</v>
@@ -1680,7 +1680,7 @@
         <v>1365.65</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E56" s="6">
         <v>38068</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B57" s="4">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>1049.6199999999999</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B58" s="4">
         <v>3</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="59" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B59" s="4">
         <v>4</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="60" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B60" s="4">
         <v>3</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" s="4">
         <v>3</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="62" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B62" s="4">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>828.14</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>40</v>
